--- a/Code/Results/Cases/Case_3_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9567040668198672</v>
+        <v>0.3569515989776448</v>
       </c>
       <c r="C2">
-        <v>0.1299767681043562</v>
+        <v>0.04544865035475709</v>
       </c>
       <c r="D2">
-        <v>0.411563123151268</v>
+        <v>0.3482883725012016</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.659317317023401</v>
+        <v>1.154600137978804</v>
       </c>
       <c r="G2">
-        <v>0.2999665655055637</v>
+        <v>0.5326547198943885</v>
       </c>
       <c r="H2">
-        <v>0.269794675146322</v>
+        <v>0.6772500188479569</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4370574584730491</v>
+        <v>0.3483713434382025</v>
       </c>
       <c r="K2">
-        <v>0.9900868084957892</v>
+        <v>0.3259555918672561</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6867904475836291</v>
+        <v>1.348733879000346</v>
       </c>
       <c r="O2">
-        <v>1.149423818508268</v>
+        <v>2.389621484360802</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8318896660027235</v>
+        <v>0.3197082102858246</v>
       </c>
       <c r="C3">
-        <v>0.1167016219920356</v>
+        <v>0.04111265933676123</v>
       </c>
       <c r="D3">
-        <v>0.3632098162366901</v>
+        <v>0.3367137227774464</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6257217102898665</v>
+        <v>1.154491467525808</v>
       </c>
       <c r="G3">
-        <v>0.289948443876419</v>
+        <v>0.5347278762790779</v>
       </c>
       <c r="H3">
-        <v>0.2704842942697141</v>
+        <v>0.6816861727967591</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3861765953427039</v>
+        <v>0.3368389099559579</v>
       </c>
       <c r="K3">
-        <v>0.8630093992272805</v>
+        <v>0.2870845533757347</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7169284879501596</v>
+        <v>1.362007993136292</v>
       </c>
       <c r="O3">
-        <v>1.129294084463027</v>
+        <v>2.403061668239076</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7553271077655666</v>
+        <v>0.2968645826898353</v>
       </c>
       <c r="C4">
-        <v>0.1085341005415614</v>
+        <v>0.03843481947478722</v>
       </c>
       <c r="D4">
-        <v>0.3338104867182068</v>
+        <v>0.3297648856358535</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6062471915168928</v>
+        <v>1.155050773592173</v>
       </c>
       <c r="G4">
-        <v>0.284494605387323</v>
+        <v>0.5363417908907095</v>
       </c>
       <c r="H4">
-        <v>0.2713515316699855</v>
+        <v>0.6846846354287521</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3554118377078623</v>
+        <v>0.3299587986679455</v>
       </c>
       <c r="K4">
-        <v>0.7849733311999501</v>
+        <v>0.2631860902083645</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7363188009751802</v>
+        <v>1.370611959088791</v>
       </c>
       <c r="O4">
-        <v>1.119333215252169</v>
+        <v>2.412603372191867</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7241371274361086</v>
+        <v>0.2875622434388845</v>
       </c>
       <c r="C5">
-        <v>0.1052009950313249</v>
+        <v>0.03733974651883898</v>
       </c>
       <c r="D5">
-        <v>0.3218964669227091</v>
+        <v>0.3269730866768583</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5985868329041182</v>
+        <v>1.15543620515971</v>
       </c>
       <c r="G5">
-        <v>0.2824388848175801</v>
+        <v>0.5370851791679385</v>
       </c>
       <c r="H5">
-        <v>0.2718127806261847</v>
+        <v>0.6859756521573885</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3429843384048326</v>
+        <v>0.3272056255688511</v>
       </c>
       <c r="K5">
-        <v>0.753162328583258</v>
+        <v>0.253439964336593</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7444378978825839</v>
+        <v>1.374232241438442</v>
       </c>
       <c r="O5">
-        <v>1.115851213182623</v>
+        <v>2.416815948184393</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7189584061111418</v>
+        <v>0.2860180148120435</v>
       </c>
       <c r="C6">
-        <v>0.1046472298179282</v>
+        <v>0.03715768120139273</v>
       </c>
       <c r="D6">
-        <v>0.3199219842020113</v>
+        <v>0.32651192587781</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5973310785752659</v>
+        <v>1.155509721621002</v>
       </c>
       <c r="G6">
-        <v>0.2821073621636785</v>
+        <v>0.5372137934458507</v>
       </c>
       <c r="H6">
-        <v>0.2718957774350059</v>
+        <v>0.6861942007875541</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3409270745536048</v>
+        <v>0.3267515157254337</v>
       </c>
       <c r="K6">
-        <v>0.7478792620253358</v>
+        <v>0.2518212041233738</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7457990479768419</v>
+        <v>1.374840278728087</v>
       </c>
       <c r="O6">
-        <v>1.115307146031356</v>
+        <v>2.417535028274827</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7549064399491101</v>
+        <v>0.2967391004736442</v>
       </c>
       <c r="C7">
-        <v>0.1084891692315324</v>
+        <v>0.03842006635572659</v>
       </c>
       <c r="D7">
-        <v>0.333649549313364</v>
+        <v>0.3297270726492485</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6061427835668454</v>
+        <v>1.155055333787843</v>
       </c>
       <c r="G7">
-        <v>0.2844662170750851</v>
+        <v>0.5363514695211649</v>
       </c>
       <c r="H7">
-        <v>0.2713573204244994</v>
+        <v>0.6847017665970156</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3552438065464543</v>
+        <v>0.3299214637954577</v>
       </c>
       <c r="K7">
-        <v>0.7845443705392086</v>
+        <v>0.2630546793286328</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7364274245407003</v>
+        <v>1.370660321465618</v>
       </c>
       <c r="O7">
-        <v>1.119283952588987</v>
+        <v>2.412658871533793</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9136472726341651</v>
+        <v>0.3441054525395657</v>
       </c>
       <c r="C8">
-        <v>0.1254025387932387</v>
+        <v>0.04395686462186177</v>
       </c>
       <c r="D8">
-        <v>0.3948267776357852</v>
+        <v>0.3442647271781993</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6474853332824111</v>
+        <v>1.154432786332414</v>
       </c>
       <c r="G8">
-        <v>0.296362297611843</v>
+        <v>0.5332987475104787</v>
       </c>
       <c r="H8">
-        <v>0.269938029354087</v>
+        <v>0.6787226358157881</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4194084621094447</v>
+        <v>0.3443532835818814</v>
       </c>
       <c r="K8">
-        <v>0.9462675116657522</v>
+        <v>0.3125597473537312</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6969950369965261</v>
+        <v>1.353216668460792</v>
       </c>
       <c r="O8">
-        <v>1.141969134592841</v>
+        <v>2.393988064929104</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.225956438703463</v>
+        <v>0.4371590872671902</v>
       </c>
       <c r="C9">
-        <v>0.1584701394675676</v>
+        <v>0.05468865174763948</v>
       </c>
       <c r="D9">
-        <v>0.5174056226130688</v>
+        <v>0.3740214451780162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7383929141485623</v>
+        <v>1.158176818764758</v>
       </c>
       <c r="G9">
-        <v>0.3256309686403611</v>
+        <v>0.5300202608826439</v>
       </c>
       <c r="H9">
-        <v>0.270854370457144</v>
+        <v>0.6691743985453371</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5495138560970361</v>
+        <v>0.3742485583028952</v>
       </c>
       <c r="K9">
-        <v>1.263732531138714</v>
+        <v>0.4093669882944084</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6269403280476418</v>
+        <v>1.322607001225673</v>
       </c>
       <c r="O9">
-        <v>1.206726232513205</v>
+        <v>2.367605473689082</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456689177068967</v>
+        <v>0.5056056221802123</v>
       </c>
       <c r="C10">
-        <v>0.1827540707711535</v>
+        <v>0.06249368007873102</v>
       </c>
       <c r="D10">
-        <v>0.6095206523798993</v>
+        <v>0.3966398404321581</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8121860200866706</v>
+        <v>1.163953237961991</v>
       </c>
       <c r="G10">
-        <v>0.3513539782478432</v>
+        <v>0.5292663149954251</v>
       </c>
       <c r="H10">
-        <v>0.2740441481330862</v>
+        <v>0.6634833479731697</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6484536609178662</v>
+        <v>0.3971886231828847</v>
       </c>
       <c r="K10">
-        <v>1.497795211156358</v>
+        <v>0.4803023533246176</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5802613173107112</v>
+        <v>1.302307945193199</v>
       </c>
       <c r="O10">
-        <v>1.268476597388087</v>
+        <v>2.354461611592114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.562090550099811</v>
+        <v>0.53675669411831</v>
       </c>
       <c r="C11">
-        <v>0.1938112922734661</v>
+        <v>0.06602653177851892</v>
       </c>
       <c r="D11">
-        <v>0.6519830387790364</v>
+        <v>0.4070928202700657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8475150376111174</v>
+        <v>1.167238007827734</v>
       </c>
       <c r="G11">
-        <v>0.364113080900438</v>
+        <v>0.5292835384991861</v>
       </c>
       <c r="H11">
-        <v>0.2761033090673948</v>
+        <v>0.6611812308959202</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6943683315975449</v>
+        <v>0.4078375781369772</v>
       </c>
       <c r="K11">
-        <v>1.604604039302927</v>
+        <v>0.5125271706233718</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5601498197650052</v>
+        <v>1.293548244450403</v>
       </c>
       <c r="O11">
-        <v>1.300073866237881</v>
+        <v>2.349837658933325</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.60208014316629</v>
+        <v>0.5485543403667634</v>
       </c>
       <c r="C12">
-        <v>0.1980009160551504</v>
+        <v>0.0673617219138265</v>
       </c>
       <c r="D12">
-        <v>0.6681524587141041</v>
+        <v>0.411074504288905</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8611673961384696</v>
+        <v>1.168576298038388</v>
       </c>
       <c r="G12">
-        <v>0.3691092012259674</v>
+        <v>0.5293419157275565</v>
       </c>
       <c r="H12">
-        <v>0.2769759924877349</v>
+        <v>0.6603506667562584</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7119010086877466</v>
+        <v>0.4119007648015867</v>
       </c>
       <c r="K12">
-        <v>1.64511048196988</v>
+        <v>0.5247230030118999</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5527031672018872</v>
+        <v>1.290299374863597</v>
       </c>
       <c r="O12">
-        <v>1.312581202072181</v>
+        <v>2.34828160031779</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.593464052770742</v>
+        <v>0.5460134538898842</v>
       </c>
       <c r="C13">
-        <v>0.197098477725504</v>
+        <v>0.06707428280439842</v>
       </c>
       <c r="D13">
-        <v>0.6646659314251337</v>
+        <v>0.4102159410107618</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8582145812992508</v>
+        <v>1.168283875000682</v>
       </c>
       <c r="G13">
-        <v>0.3680256732470895</v>
+        <v>0.5293270359447462</v>
       </c>
       <c r="H13">
-        <v>0.2767838206547992</v>
+        <v>0.6605277119560924</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7081182915068354</v>
+        <v>0.4110243217803031</v>
       </c>
       <c r="K13">
-        <v>1.636383806927398</v>
+        <v>0.5220967346492102</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5542992879951285</v>
+        <v>1.29099604184912</v>
       </c>
       <c r="O13">
-        <v>1.309862782616989</v>
+        <v>2.348608054983316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.565378908710613</v>
+        <v>0.5377272690680002</v>
       </c>
       <c r="C14">
-        <v>0.1941559190829878</v>
+        <v>0.06613643172306638</v>
       </c>
       <c r="D14">
-        <v>0.6533114496260453</v>
+        <v>0.4074199285319651</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8486326087699609</v>
+        <v>1.167346217835501</v>
       </c>
       <c r="G14">
-        <v>0.3645207432500399</v>
+        <v>0.5292873016399398</v>
       </c>
       <c r="H14">
-        <v>0.2761732102827494</v>
+        <v>0.661112074448198</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6958077413732298</v>
+        <v>0.4081712446766232</v>
       </c>
       <c r="K14">
-        <v>1.607935246555087</v>
+        <v>0.5135306733780851</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5595337439985535</v>
+        <v>1.293279590289654</v>
       </c>
       <c r="O14">
-        <v>1.30109176142733</v>
+        <v>2.349705734058915</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.548186299426249</v>
+        <v>0.5326519058345696</v>
       </c>
       <c r="C15">
-        <v>0.1923538731038263</v>
+        <v>0.06556162675290977</v>
       </c>
       <c r="D15">
-        <v>0.6463684933730462</v>
+        <v>0.4057103278989302</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8427997043779953</v>
+        <v>1.16678417000702</v>
       </c>
       <c r="G15">
-        <v>0.3623956814894456</v>
+        <v>0.5292697180338166</v>
       </c>
       <c r="H15">
-        <v>0.2758114638527758</v>
+        <v>0.6614753773255728</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6882866365799174</v>
+        <v>0.40642764433818</v>
       </c>
       <c r="K15">
-        <v>1.590517913965869</v>
+        <v>0.5082827810382184</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5627622607060765</v>
+        <v>1.294687216857891</v>
       </c>
       <c r="O15">
-        <v>1.295791025444515</v>
+        <v>2.350403481475979</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449810902213898</v>
+        <v>0.5035700597777861</v>
       </c>
       <c r="C16">
-        <v>0.1820317475494875</v>
+        <v>0.06226243703699197</v>
       </c>
       <c r="D16">
-        <v>0.6067576759397184</v>
+        <v>0.3959599934170797</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8099143619746627</v>
+        <v>1.163751786598766</v>
       </c>
       <c r="G16">
-        <v>0.3505424680495821</v>
+        <v>0.5292724425593178</v>
       </c>
       <c r="H16">
-        <v>0.2739222742269192</v>
+        <v>0.6636395638999772</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6454725649529109</v>
+        <v>0.3964969807489069</v>
       </c>
       <c r="K16">
-        <v>1.490822737299226</v>
+        <v>0.4781954419765668</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5815988921357054</v>
+        <v>1.302889960427574</v>
       </c>
       <c r="O16">
-        <v>1.266485388472148</v>
+        <v>2.354791073091178</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.389582500176317</v>
+        <v>0.4857325083181081</v>
       </c>
       <c r="C17">
-        <v>0.1757027959552033</v>
+        <v>0.06023390223988656</v>
       </c>
       <c r="D17">
-        <v>0.5826073902408666</v>
+        <v>0.3900202930936132</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7902055501941874</v>
+        <v>1.162059758396296</v>
       </c>
       <c r="G17">
-        <v>0.3435503857446776</v>
+        <v>0.5293664114196872</v>
       </c>
       <c r="H17">
-        <v>0.2729228584530574</v>
+        <v>0.665040642775935</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6194503358324823</v>
+        <v>0.390459478266763</v>
       </c>
       <c r="K17">
-        <v>1.429756714477264</v>
+        <v>0.459726075591675</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5934474839229651</v>
+        <v>1.3080436035692</v>
       </c>
       <c r="O17">
-        <v>1.249431679796288</v>
+        <v>2.357829866284277</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.354981281824223</v>
+        <v>0.475474215318286</v>
       </c>
       <c r="C18">
-        <v>0.1720634583146818</v>
+        <v>0.05906548190746719</v>
       </c>
       <c r="D18">
-        <v>0.5687687767011198</v>
+        <v>0.3866193591523484</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7790339075658608</v>
+        <v>1.161148396828153</v>
       </c>
       <c r="G18">
-        <v>0.3396274783133038</v>
+        <v>0.5294543598007664</v>
       </c>
       <c r="H18">
-        <v>0.2724049114482199</v>
+        <v>0.6658735008200267</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6045673717849951</v>
+        <v>0.3870069549689674</v>
       </c>
       <c r="K18">
-        <v>1.394663656258331</v>
+        <v>0.4490988799655042</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6003676998675438</v>
+        <v>1.311052498437807</v>
       </c>
       <c r="O18">
-        <v>1.239950500101486</v>
+        <v>2.359705260073525</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.343272485995044</v>
+        <v>0.4720011932170394</v>
       </c>
       <c r="C19">
-        <v>0.17083136775301</v>
+        <v>0.0586695920502649</v>
       </c>
       <c r="D19">
-        <v>0.5640919110767868</v>
+        <v>0.3854705160389926</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7752789922195973</v>
+        <v>1.160850449888116</v>
       </c>
       <c r="G19">
-        <v>0.3383158437770959</v>
+        <v>0.5294899581533627</v>
       </c>
       <c r="H19">
-        <v>0.2722391532595196</v>
+        <v>0.6661601297924591</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5995422871773144</v>
+        <v>0.3858414409639011</v>
       </c>
       <c r="K19">
-        <v>1.382786624309347</v>
+        <v>0.445500009705313</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6027286120740776</v>
+        <v>1.312078927781055</v>
       </c>
       <c r="O19">
-        <v>1.236795496876852</v>
+        <v>2.36036214332961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.395989625868197</v>
+        <v>0.4876312065382535</v>
       </c>
       <c r="C20">
-        <v>0.1763764226658395</v>
+        <v>0.06045001569066244</v>
       </c>
       <c r="D20">
-        <v>0.5851727817556309</v>
+        <v>0.3906509892537713</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7922864305941886</v>
+        <v>1.162233477076541</v>
       </c>
       <c r="G20">
-        <v>0.3442843965946594</v>
+        <v>0.5293528993226175</v>
       </c>
       <c r="H20">
-        <v>0.2730233214527829</v>
+        <v>0.6648887019922256</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6222116098716697</v>
+        <v>0.3911001018391715</v>
       </c>
       <c r="K20">
-        <v>1.436254052688298</v>
+        <v>0.4616926008649216</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5921752373769138</v>
+        <v>1.307490367666915</v>
       </c>
       <c r="O20">
-        <v>1.251212897691801</v>
+        <v>2.357493179196524</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.57362601413854</v>
+        <v>0.540161089361618</v>
       </c>
       <c r="C21">
-        <v>0.1950201437415586</v>
+        <v>0.06641197317073022</v>
       </c>
       <c r="D21">
-        <v>0.6566440192642631</v>
+        <v>0.4082405524351316</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8514394558627032</v>
+        <v>1.167619068476398</v>
       </c>
       <c r="G21">
-        <v>0.3655456578118503</v>
+        <v>0.5292975647691094</v>
       </c>
       <c r="H21">
-        <v>0.2763499940029703</v>
+        <v>0.6609393152413077</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6994195632645557</v>
+        <v>0.4090084307539996</v>
       </c>
       <c r="K21">
-        <v>1.616289539281183</v>
+        <v>0.5160469287470733</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.557991603853484</v>
+        <v>1.292607004641656</v>
       </c>
       <c r="O21">
-        <v>1.303652995571753</v>
+        <v>2.349378028334769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.690173638735388</v>
+        <v>0.5745003248056548</v>
       </c>
       <c r="C22">
-        <v>0.2072199608106331</v>
+        <v>0.07029312471644289</v>
       </c>
       <c r="D22">
-        <v>0.7038831111701995</v>
+        <v>0.4198724673864831</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8917073237790447</v>
+        <v>1.17168918071971</v>
       </c>
       <c r="G22">
-        <v>0.3804064617982164</v>
+        <v>0.5295636783725115</v>
       </c>
       <c r="H22">
-        <v>0.2790686004680509</v>
+        <v>0.6585982758568178</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7507371495940731</v>
+        <v>0.4208912459956196</v>
       </c>
       <c r="K22">
-        <v>1.734310806522359</v>
+        <v>0.5515294716661288</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5366403605430179</v>
+        <v>1.283277624151054</v>
       </c>
       <c r="O22">
-        <v>1.341104978944287</v>
+        <v>2.345210541924359</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.627924039591392</v>
+        <v>0.55617232179452</v>
       </c>
       <c r="C23">
-        <v>0.200706954461296</v>
+        <v>0.06822311028427919</v>
       </c>
       <c r="D23">
-        <v>0.6786190560417538</v>
+        <v>0.4136519005932371</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8700612036382864</v>
+        <v>1.169466552409887</v>
       </c>
       <c r="G23">
-        <v>0.3723823178215895</v>
+        <v>0.5293939707240582</v>
       </c>
       <c r="H23">
-        <v>0.2775659094253342</v>
+        <v>0.659825775275749</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7232641164601574</v>
+        <v>0.4145328238589912</v>
       </c>
       <c r="K23">
-        <v>1.671283556191895</v>
+        <v>0.5325957589646748</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5479427104053194</v>
+        <v>1.288220489696119</v>
       </c>
       <c r="O23">
-        <v>1.320812079718024</v>
+        <v>2.347330826859377</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.393092887789891</v>
+        <v>0.4867728151370443</v>
       </c>
       <c r="C24">
-        <v>0.1760718784071713</v>
+        <v>0.06035231761080695</v>
       </c>
       <c r="D24">
-        <v>0.5840128265928684</v>
+        <v>0.3903658082760444</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7913451702093255</v>
+        <v>1.16215474757486</v>
       </c>
       <c r="G24">
-        <v>0.3439522492941336</v>
+        <v>0.5293589024738168</v>
       </c>
       <c r="H24">
-        <v>0.2729777261495485</v>
+        <v>0.6649573091948469</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6209629974443658</v>
+        <v>0.3908104182431487</v>
       </c>
       <c r="K24">
-        <v>1.433316561499936</v>
+        <v>0.4608035624941351</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5927500832747157</v>
+        <v>1.307740342341237</v>
       </c>
       <c r="O24">
-        <v>1.250406605144406</v>
+        <v>2.35764499562643</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.141294039315085</v>
+        <v>0.4119699258176013</v>
       </c>
       <c r="C25">
-        <v>0.1495302149463384</v>
+        <v>0.05179919201125927</v>
       </c>
       <c r="D25">
-        <v>0.4839190283309733</v>
+        <v>0.3658383196176089</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7126466589834664</v>
+        <v>1.156632541383033</v>
       </c>
       <c r="G25">
-        <v>0.3170174209240599</v>
+        <v>0.530616869262694</v>
       </c>
       <c r="H25">
-        <v>0.2701843765834084</v>
+        <v>0.6715247185041093</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5137849430487336</v>
+        <v>0.3659899774607851</v>
       </c>
       <c r="K25">
-        <v>1.177753130746026</v>
+        <v>0.3832095740756358</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.64507787573082</v>
+        <v>1.33050294756638</v>
       </c>
       <c r="O25">
-        <v>1.186856496574109</v>
+        <v>2.373647130643093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3569515989776448</v>
+        <v>0.9567040668197819</v>
       </c>
       <c r="C2">
-        <v>0.04544865035475709</v>
+        <v>0.1299767681043704</v>
       </c>
       <c r="D2">
-        <v>0.3482883725012016</v>
+        <v>0.4115631231511259</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.154600137978804</v>
+        <v>0.6593173170233797</v>
       </c>
       <c r="G2">
-        <v>0.5326547198943885</v>
+        <v>0.2999665655055566</v>
       </c>
       <c r="H2">
-        <v>0.6772500188479569</v>
+        <v>0.269794675146322</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3483713434382025</v>
+        <v>0.4370574584730633</v>
       </c>
       <c r="K2">
-        <v>0.3259555918672561</v>
+        <v>0.9900868084958176</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.348733879000346</v>
+        <v>0.6867904475836184</v>
       </c>
       <c r="O2">
-        <v>2.389621484360802</v>
+        <v>1.149423818508254</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3197082102858246</v>
+        <v>0.8318896660027519</v>
       </c>
       <c r="C3">
-        <v>0.04111265933676123</v>
+        <v>0.1167016219920214</v>
       </c>
       <c r="D3">
-        <v>0.3367137227774464</v>
+        <v>0.3632098162367328</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.154491467525808</v>
+        <v>0.6257217102898665</v>
       </c>
       <c r="G3">
-        <v>0.5347278762790779</v>
+        <v>0.2899484438763551</v>
       </c>
       <c r="H3">
-        <v>0.6816861727967591</v>
+        <v>0.2704842942697212</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3368389099559579</v>
+        <v>0.3861765953426897</v>
       </c>
       <c r="K3">
-        <v>0.2870845533757347</v>
+        <v>0.8630093992272236</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.362007993136292</v>
+        <v>0.7169284879501703</v>
       </c>
       <c r="O3">
-        <v>2.403061668239076</v>
+        <v>1.129294084463069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2968645826898353</v>
+        <v>0.7553271077655666</v>
       </c>
       <c r="C4">
-        <v>0.03843481947478722</v>
+        <v>0.1085341005413483</v>
       </c>
       <c r="D4">
-        <v>0.3297648856358535</v>
+        <v>0.3338104867182352</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.155050773592173</v>
+        <v>0.6062471915168786</v>
       </c>
       <c r="G4">
-        <v>0.5363417908907095</v>
+        <v>0.2844946053873016</v>
       </c>
       <c r="H4">
-        <v>0.6846846354287521</v>
+        <v>0.2713515316700921</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3299587986679455</v>
+        <v>0.3554118377078481</v>
       </c>
       <c r="K4">
-        <v>0.2631860902083645</v>
+        <v>0.7849733312001206</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.370611959088791</v>
+        <v>0.7363188009751234</v>
       </c>
       <c r="O4">
-        <v>2.412603372191867</v>
+        <v>1.119333215252226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2875622434388845</v>
+        <v>0.7241371274359949</v>
       </c>
       <c r="C5">
-        <v>0.03733974651883898</v>
+        <v>0.1052009950310975</v>
       </c>
       <c r="D5">
-        <v>0.3269730866768583</v>
+        <v>0.321896466922837</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.15543620515971</v>
+        <v>0.5985868329041182</v>
       </c>
       <c r="G5">
-        <v>0.5370851791679385</v>
+        <v>0.2824388848175943</v>
       </c>
       <c r="H5">
-        <v>0.6859756521573885</v>
+        <v>0.2718127806261847</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3272056255688511</v>
+        <v>0.3429843384048326</v>
       </c>
       <c r="K5">
-        <v>0.253439964336593</v>
+        <v>0.7531623285831301</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.374232241438442</v>
+        <v>0.7444378978826443</v>
       </c>
       <c r="O5">
-        <v>2.416815948184393</v>
+        <v>1.115851213182623</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2860180148120435</v>
+        <v>0.7189584061111702</v>
       </c>
       <c r="C6">
-        <v>0.03715768120139273</v>
+        <v>0.1046472298179282</v>
       </c>
       <c r="D6">
-        <v>0.32651192587781</v>
+        <v>0.3199219842016703</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.155509721621002</v>
+        <v>0.5973310785752588</v>
       </c>
       <c r="G6">
-        <v>0.5372137934458507</v>
+        <v>0.2821073621637353</v>
       </c>
       <c r="H6">
-        <v>0.6861942007875541</v>
+        <v>0.2718957774350059</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3267515157254337</v>
+        <v>0.3409270745536759</v>
       </c>
       <c r="K6">
-        <v>0.2518212041233738</v>
+        <v>0.747879262025279</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.374840278728087</v>
+        <v>0.7457990479768419</v>
       </c>
       <c r="O6">
-        <v>2.417535028274827</v>
+        <v>1.115307146031284</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2967391004736442</v>
+        <v>0.7549064399490817</v>
       </c>
       <c r="C7">
-        <v>0.03842006635572659</v>
+        <v>0.1084891692315892</v>
       </c>
       <c r="D7">
-        <v>0.3297270726492485</v>
+        <v>0.3336495493133214</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.155055333787843</v>
+        <v>0.6061427835668169</v>
       </c>
       <c r="G7">
-        <v>0.5363514695211649</v>
+        <v>0.2844662170750354</v>
       </c>
       <c r="H7">
-        <v>0.6847017665970156</v>
+        <v>0.2713573204244923</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3299214637954577</v>
+        <v>0.3552438065464401</v>
       </c>
       <c r="K7">
-        <v>0.2630546793286328</v>
+        <v>0.7845443705392086</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.370660321465618</v>
+        <v>0.7364274245406968</v>
       </c>
       <c r="O7">
-        <v>2.412658871533793</v>
+        <v>1.119283952588972</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3441054525395657</v>
+        <v>0.9136472726341651</v>
       </c>
       <c r="C8">
-        <v>0.04395686462186177</v>
+        <v>0.1254025387932387</v>
       </c>
       <c r="D8">
-        <v>0.3442647271781993</v>
+        <v>0.3948267776357852</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.154432786332414</v>
+        <v>0.6474853332824182</v>
       </c>
       <c r="G8">
-        <v>0.5332987475104787</v>
+        <v>0.296362297611843</v>
       </c>
       <c r="H8">
-        <v>0.6787226358157881</v>
+        <v>0.269938029354087</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3443532835818814</v>
+        <v>0.4194084621092742</v>
       </c>
       <c r="K8">
-        <v>0.3125597473537312</v>
+        <v>0.9462675116657238</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.353216668460792</v>
+        <v>0.6969950369965794</v>
       </c>
       <c r="O8">
-        <v>2.393988064929104</v>
+        <v>1.141969134592856</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4371590872671902</v>
+        <v>1.225956438703349</v>
       </c>
       <c r="C9">
-        <v>0.05468865174763948</v>
+        <v>0.1584701394675108</v>
       </c>
       <c r="D9">
-        <v>0.3740214451780162</v>
+        <v>0.5174056226132109</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.158176818764758</v>
+        <v>0.7383929141485694</v>
       </c>
       <c r="G9">
-        <v>0.5300202608826439</v>
+        <v>0.325630968640418</v>
       </c>
       <c r="H9">
-        <v>0.6691743985453371</v>
+        <v>0.270854370457144</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3742485583028952</v>
+        <v>0.5495138560970361</v>
       </c>
       <c r="K9">
-        <v>0.4093669882944084</v>
+        <v>1.263732531138686</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.322607001225673</v>
+        <v>0.6269403280476347</v>
       </c>
       <c r="O9">
-        <v>2.367605473689082</v>
+        <v>1.206726232513219</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5056056221802123</v>
+        <v>1.456689177068853</v>
       </c>
       <c r="C10">
-        <v>0.06249368007873102</v>
+        <v>0.1827540707711677</v>
       </c>
       <c r="D10">
-        <v>0.3966398404321581</v>
+        <v>0.6095206523797003</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.163953237961991</v>
+        <v>0.8121860200866706</v>
       </c>
       <c r="G10">
-        <v>0.5292663149954251</v>
+        <v>0.3513539782477721</v>
       </c>
       <c r="H10">
-        <v>0.6634833479731697</v>
+        <v>0.2740441481330862</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3971886231828847</v>
+        <v>0.6484536609178519</v>
       </c>
       <c r="K10">
-        <v>0.4803023533246176</v>
+        <v>1.497795211156358</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.302307945193199</v>
+        <v>0.5802613173107147</v>
       </c>
       <c r="O10">
-        <v>2.354461611592114</v>
+        <v>1.268476597388087</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.53675669411831</v>
+        <v>1.562090550099668</v>
       </c>
       <c r="C11">
-        <v>0.06602653177851892</v>
+        <v>0.1938112922734092</v>
       </c>
       <c r="D11">
-        <v>0.4070928202700657</v>
+        <v>0.6519830387792069</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.167238007827734</v>
+        <v>0.8475150376111174</v>
       </c>
       <c r="G11">
-        <v>0.5292835384991861</v>
+        <v>0.3641130809004949</v>
       </c>
       <c r="H11">
-        <v>0.6611812308959202</v>
+        <v>0.2761033090673948</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4078375781369772</v>
+        <v>0.694368331597488</v>
       </c>
       <c r="K11">
-        <v>0.5125271706233718</v>
+        <v>1.604604039302927</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.293548244450403</v>
+        <v>0.5601498197649377</v>
       </c>
       <c r="O11">
-        <v>2.349837658933325</v>
+        <v>1.300073866237852</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5485543403667634</v>
+        <v>1.602080143166319</v>
       </c>
       <c r="C12">
-        <v>0.0673617219138265</v>
+        <v>0.1980009160551788</v>
       </c>
       <c r="D12">
-        <v>0.411074504288905</v>
+        <v>0.6681524587143315</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.168576298038388</v>
+        <v>0.8611673961384696</v>
       </c>
       <c r="G12">
-        <v>0.5293419157275565</v>
+        <v>0.36910920122601</v>
       </c>
       <c r="H12">
-        <v>0.6603506667562584</v>
+        <v>0.2769759924876212</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4119007648015867</v>
+        <v>0.7119010086877751</v>
       </c>
       <c r="K12">
-        <v>0.5247230030118999</v>
+        <v>1.645110481969681</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.290299374863597</v>
+        <v>0.5527031672019014</v>
       </c>
       <c r="O12">
-        <v>2.34828160031779</v>
+        <v>1.312581202072124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5460134538898842</v>
+        <v>1.593464052770628</v>
       </c>
       <c r="C13">
-        <v>0.06707428280439842</v>
+        <v>0.1970984777252767</v>
       </c>
       <c r="D13">
-        <v>0.4102159410107618</v>
+        <v>0.6646659314249916</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.168283875000682</v>
+        <v>0.8582145812992508</v>
       </c>
       <c r="G13">
-        <v>0.5293270359447462</v>
+        <v>0.3680256732470752</v>
       </c>
       <c r="H13">
-        <v>0.6605277119560924</v>
+        <v>0.2767838206546855</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4110243217803031</v>
+        <v>0.708118291506878</v>
       </c>
       <c r="K13">
-        <v>0.5220967346492102</v>
+        <v>1.636383806927341</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.29099604184912</v>
+        <v>0.5542992879951925</v>
       </c>
       <c r="O13">
-        <v>2.348608054983316</v>
+        <v>1.309862782616989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5377272690680002</v>
+        <v>1.565378908710613</v>
       </c>
       <c r="C14">
-        <v>0.06613643172306638</v>
+        <v>0.1941559190829736</v>
       </c>
       <c r="D14">
-        <v>0.4074199285319651</v>
+        <v>0.65331144962596</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.167346217835501</v>
+        <v>0.8486326087699609</v>
       </c>
       <c r="G14">
-        <v>0.5292873016399398</v>
+        <v>0.3645207432500541</v>
       </c>
       <c r="H14">
-        <v>0.661112074448198</v>
+        <v>0.2761732102827352</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4081712446766232</v>
+        <v>0.6958077413732724</v>
       </c>
       <c r="K14">
-        <v>0.5135306733780851</v>
+        <v>1.607935246555115</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.293279590289654</v>
+        <v>0.5595337439985428</v>
       </c>
       <c r="O14">
-        <v>2.349705734058915</v>
+        <v>1.301091761427301</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5326519058345696</v>
+        <v>1.548186299426391</v>
       </c>
       <c r="C15">
-        <v>0.06556162675290977</v>
+        <v>0.1923538731037695</v>
       </c>
       <c r="D15">
-        <v>0.4057103278989302</v>
+        <v>0.6463684933729894</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.16678417000702</v>
+        <v>0.8427997043779953</v>
       </c>
       <c r="G15">
-        <v>0.5292697180338166</v>
+        <v>0.3623956814894598</v>
       </c>
       <c r="H15">
-        <v>0.6614753773255728</v>
+        <v>0.2758114638526621</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.40642764433818</v>
+        <v>0.688286636579889</v>
       </c>
       <c r="K15">
-        <v>0.5082827810382184</v>
+        <v>1.590517913965755</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.294687216857891</v>
+        <v>0.5627622607061404</v>
       </c>
       <c r="O15">
-        <v>2.350403481475979</v>
+        <v>1.295791025444515</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5035700597777861</v>
+        <v>1.449810902213898</v>
       </c>
       <c r="C16">
-        <v>0.06226243703699197</v>
+        <v>0.1820317475491606</v>
       </c>
       <c r="D16">
-        <v>0.3959599934170797</v>
+        <v>0.6067576759397468</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.163751786598766</v>
+        <v>0.8099143619746627</v>
       </c>
       <c r="G16">
-        <v>0.5292724425593178</v>
+        <v>0.3505424680495679</v>
       </c>
       <c r="H16">
-        <v>0.6636395638999772</v>
+        <v>0.2739222742269192</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3964969807489069</v>
+        <v>0.6454725649529252</v>
       </c>
       <c r="K16">
-        <v>0.4781954419765668</v>
+        <v>1.490822737299339</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.302889960427574</v>
+        <v>0.581598892135716</v>
       </c>
       <c r="O16">
-        <v>2.354791073091178</v>
+        <v>1.266485388472148</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4857325083181081</v>
+        <v>1.389582500176317</v>
       </c>
       <c r="C17">
-        <v>0.06023390223988656</v>
+        <v>0.1757027959552602</v>
       </c>
       <c r="D17">
-        <v>0.3900202930936132</v>
+        <v>0.5826073902409235</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.162059758396296</v>
+        <v>0.7902055501941874</v>
       </c>
       <c r="G17">
-        <v>0.5293664114196872</v>
+        <v>0.3435503857447202</v>
       </c>
       <c r="H17">
-        <v>0.665040642775935</v>
+        <v>0.2729228584529437</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.390459478266763</v>
+        <v>0.6194503358323686</v>
       </c>
       <c r="K17">
-        <v>0.459726075591675</v>
+        <v>1.429756714477179</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.3080436035692</v>
+        <v>0.5934474839229509</v>
       </c>
       <c r="O17">
-        <v>2.357829866284277</v>
+        <v>1.249431679796203</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.475474215318286</v>
+        <v>1.354981281824138</v>
       </c>
       <c r="C18">
-        <v>0.05906548190746719</v>
+        <v>0.1720634583145966</v>
       </c>
       <c r="D18">
-        <v>0.3866193591523484</v>
+        <v>0.5687687767009777</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.161148396828153</v>
+        <v>0.7790339075658466</v>
       </c>
       <c r="G18">
-        <v>0.5294543598007664</v>
+        <v>0.3396274783133038</v>
       </c>
       <c r="H18">
-        <v>0.6658735008200267</v>
+        <v>0.2724049114482199</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3870069549689674</v>
+        <v>0.6045673717849809</v>
       </c>
       <c r="K18">
-        <v>0.4490988799655042</v>
+        <v>1.394663656258302</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.311052498437807</v>
+        <v>0.6003676998675331</v>
       </c>
       <c r="O18">
-        <v>2.359705260073525</v>
+        <v>1.239950500101457</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4720011932170394</v>
+        <v>1.343272485995158</v>
       </c>
       <c r="C19">
-        <v>0.0586695920502649</v>
+        <v>0.1708313677524842</v>
       </c>
       <c r="D19">
-        <v>0.3854705160389926</v>
+        <v>0.56409191107673</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.160850449888116</v>
+        <v>0.7752789922195973</v>
       </c>
       <c r="G19">
-        <v>0.5294899581533627</v>
+        <v>0.3383158437770959</v>
       </c>
       <c r="H19">
-        <v>0.6661601297924591</v>
+        <v>0.2722391532595196</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3858414409639011</v>
+        <v>0.5995422871773144</v>
       </c>
       <c r="K19">
-        <v>0.445500009705313</v>
+        <v>1.382786624309375</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.312078927781055</v>
+        <v>0.6027286120740776</v>
       </c>
       <c r="O19">
-        <v>2.36036214332961</v>
+        <v>1.23679549687688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4876312065382535</v>
+        <v>1.395989625868083</v>
       </c>
       <c r="C20">
-        <v>0.06045001569066244</v>
+        <v>0.1763764226658395</v>
       </c>
       <c r="D20">
-        <v>0.3906509892537713</v>
+        <v>0.5851727817557162</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.162233477076541</v>
+        <v>0.7922864305941602</v>
       </c>
       <c r="G20">
-        <v>0.5293528993226175</v>
+        <v>0.3442843965947162</v>
       </c>
       <c r="H20">
-        <v>0.6648887019922256</v>
+        <v>0.2730233214527829</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3911001018391715</v>
+        <v>0.6222116098716128</v>
       </c>
       <c r="K20">
-        <v>0.4616926008649216</v>
+        <v>1.43625405268827</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.307490367666915</v>
+        <v>0.5921752373769031</v>
       </c>
       <c r="O20">
-        <v>2.357493179196524</v>
+        <v>1.251212897691744</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.540161089361618</v>
+        <v>1.573626014138398</v>
       </c>
       <c r="C21">
-        <v>0.06641197317073022</v>
+        <v>0.1950201437421129</v>
       </c>
       <c r="D21">
-        <v>0.4082405524351316</v>
+        <v>0.656644019264121</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.167619068476398</v>
+        <v>0.851439455862689</v>
       </c>
       <c r="G21">
-        <v>0.5292975647691094</v>
+        <v>0.3655456578117651</v>
       </c>
       <c r="H21">
-        <v>0.6609393152413077</v>
+        <v>0.2763499940029703</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4090084307539996</v>
+        <v>0.6994195632646836</v>
       </c>
       <c r="K21">
-        <v>0.5160469287470733</v>
+        <v>1.616289539281382</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.292607004641656</v>
+        <v>0.5579916038535409</v>
       </c>
       <c r="O21">
-        <v>2.349378028334769</v>
+        <v>1.303652995571781</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5745003248056548</v>
+        <v>1.690173638735359</v>
       </c>
       <c r="C22">
-        <v>0.07029312471644289</v>
+        <v>0.2072199608109457</v>
       </c>
       <c r="D22">
-        <v>0.4198724673864831</v>
+        <v>0.7038831111701995</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.17168918071971</v>
+        <v>0.8917073237790447</v>
       </c>
       <c r="G22">
-        <v>0.5295636783725115</v>
+        <v>0.3804064617982164</v>
       </c>
       <c r="H22">
-        <v>0.6585982758568178</v>
+        <v>0.2790686004680367</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4208912459956196</v>
+        <v>0.7507371495941868</v>
       </c>
       <c r="K22">
-        <v>0.5515294716661288</v>
+        <v>1.734310806522274</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.283277624151054</v>
+        <v>0.5366403605429504</v>
       </c>
       <c r="O22">
-        <v>2.345210541924359</v>
+        <v>1.34110497894423</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.55617232179452</v>
+        <v>1.627924039591448</v>
       </c>
       <c r="C23">
-        <v>0.06822311028427919</v>
+        <v>0.2007069544613103</v>
       </c>
       <c r="D23">
-        <v>0.4136519005932371</v>
+        <v>0.6786190560416685</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.169466552409887</v>
+        <v>0.8700612036383006</v>
       </c>
       <c r="G23">
-        <v>0.5293939707240582</v>
+        <v>0.3723823178215042</v>
       </c>
       <c r="H23">
-        <v>0.659825775275749</v>
+        <v>0.2775659094252347</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4145328238589912</v>
+        <v>0.7232641164601432</v>
       </c>
       <c r="K23">
-        <v>0.5325957589646748</v>
+        <v>1.671283556191867</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.288220489696119</v>
+        <v>0.5479427104052625</v>
       </c>
       <c r="O23">
-        <v>2.347330826859377</v>
+        <v>1.320812079718024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4867728151370443</v>
+        <v>1.393092887789862</v>
       </c>
       <c r="C24">
-        <v>0.06035231761080695</v>
+        <v>0.1760718784068729</v>
       </c>
       <c r="D24">
-        <v>0.3903658082760444</v>
+        <v>0.5840128265925841</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.16215474757486</v>
+        <v>0.7913451702093255</v>
       </c>
       <c r="G24">
-        <v>0.5293589024738168</v>
+        <v>0.3439522492940199</v>
       </c>
       <c r="H24">
-        <v>0.6649573091948469</v>
+        <v>0.2729777261495485</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3908104182431487</v>
+        <v>0.6209629974443374</v>
       </c>
       <c r="K24">
-        <v>0.4608035624941351</v>
+        <v>1.433316561499964</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.307740342341237</v>
+        <v>0.5927500832746375</v>
       </c>
       <c r="O24">
-        <v>2.35764499562643</v>
+        <v>1.250406605144434</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4119699258176013</v>
+        <v>1.141294039314857</v>
       </c>
       <c r="C25">
-        <v>0.05179919201125927</v>
+        <v>0.1495302149461821</v>
       </c>
       <c r="D25">
-        <v>0.3658383196176089</v>
+        <v>0.4839190283309165</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.156632541383033</v>
+        <v>0.7126466589834521</v>
       </c>
       <c r="G25">
-        <v>0.530616869262694</v>
+        <v>0.3170174209241097</v>
       </c>
       <c r="H25">
-        <v>0.6715247185041093</v>
+        <v>0.2701843765832876</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3659899774607851</v>
+        <v>0.5137849430487904</v>
       </c>
       <c r="K25">
-        <v>0.3832095740756358</v>
+        <v>1.177753130745913</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.33050294756638</v>
+        <v>0.6450778757308768</v>
       </c>
       <c r="O25">
-        <v>2.373647130643093</v>
+        <v>1.18685649657408</v>
       </c>
     </row>
   </sheetData>
